--- a/i_codebooks/D4_persontime_Cube_ImmDis.xlsx
+++ b/i_codebooks/D4_persontime_Cube_ImmDis.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="83">
   <si>
     <t>metadata_content</t>
   </si>
@@ -261,6 +261,28 @@
   </si>
   <si>
     <t>allage</t>
+  </si>
+  <si>
+    <t>number_of_period_{ImmDis}</t>
+  </si>
+  <si>
+    <t>from D3_followup_periods_in_cohort_{ImmDis} , restricted to 1, 2 and 3</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>1, 2, 3</t>
+  </si>
+  <si>
+    <t>1 = first level
+99 = all together</t>
+  </si>
+  <si>
+    <t>hierarchy of gender</t>
+  </si>
+  <si>
+    <t>hierarchy of ageband</t>
   </si>
 </sst>
 </file>
@@ -349,7 +371,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -385,11 +407,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -422,7 +457,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -432,6 +466,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -804,13 +849,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,64 +910,130 @@
       </c>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" ht="69" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+    </row>
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+    </row>
+    <row r="5" spans="1:12" ht="69" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="H5" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1116,574 +1227,595 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:F32"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" customWidth="1"/>
-    <col min="7" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="8" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="9"/>
       <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="17">
+      <c r="F2" s="16">
         <v>584</v>
       </c>
-      <c r="F2" s="17">
+      <c r="G2" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
-        <v>1</v>
-      </c>
-      <c r="B3" s="17">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="17">
+      <c r="F3" s="16">
         <v>546</v>
       </c>
-      <c r="F3" s="17">
+      <c r="G3" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
-        <v>1</v>
-      </c>
-      <c r="B4" s="17">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="25">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="17">
+      <c r="F4" s="16">
         <v>2</v>
       </c>
-      <c r="F4" s="17">
+      <c r="G4" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
-        <v>1</v>
-      </c>
-      <c r="B5" s="18">
-        <v>1</v>
-      </c>
-      <c r="C5" s="18" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
+        <v>1</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="18">
+      <c r="F5" s="17">
         <v>5473</v>
       </c>
-      <c r="F5" s="18">
+      <c r="G5" s="17">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
-        <v>1</v>
-      </c>
-      <c r="B6" s="18">
-        <v>1</v>
-      </c>
-      <c r="C6" s="18" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <v>1</v>
+      </c>
+      <c r="B6" s="26">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="18">
+      <c r="F6" s="17">
         <v>7651</v>
       </c>
-      <c r="F6" s="18">
+      <c r="G6" s="17">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
-        <v>1</v>
-      </c>
-      <c r="B7" s="18">
-        <v>1</v>
-      </c>
-      <c r="C7" s="18" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
+        <v>1</v>
+      </c>
+      <c r="B7" s="26">
+        <v>1</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="18">
+      <c r="F7" s="17">
         <v>21</v>
       </c>
-      <c r="F7" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
-        <v>1</v>
-      </c>
-      <c r="B8" s="17">
-        <v>1</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>1</v>
+      </c>
+      <c r="B8" s="25">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16">
+        <v>1</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="17">
+      <c r="F8" s="16">
         <v>8765</v>
       </c>
-      <c r="F8" s="17">
+      <c r="G8" s="16">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
-        <v>1</v>
-      </c>
-      <c r="B9" s="17">
-        <v>1</v>
-      </c>
-      <c r="C9" s="17" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>1</v>
+      </c>
+      <c r="B9" s="25">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="17">
+      <c r="F9" s="16">
         <v>9543</v>
       </c>
-      <c r="F9" s="17">
+      <c r="G9" s="16">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
-        <v>1</v>
-      </c>
-      <c r="B10" s="17">
-        <v>1</v>
-      </c>
-      <c r="C10" s="17" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>1</v>
+      </c>
+      <c r="B10" s="25">
+        <v>1</v>
+      </c>
+      <c r="C10" s="16">
+        <v>1</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="17">
+      <c r="F10" s="16">
         <v>123</v>
       </c>
-      <c r="F10" s="17">
+      <c r="G10" s="16">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
-        <v>2</v>
-      </c>
-      <c r="B11" s="18">
-        <v>1</v>
-      </c>
-      <c r="C11" s="18" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <v>1</v>
+      </c>
+      <c r="B11" s="26">
+        <v>99</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="18">
-        <f>SUM(E2:E4)</f>
+      <c r="F11" s="17">
+        <f>SUM(F2:F4)</f>
         <v>1132</v>
       </c>
-      <c r="F11" s="18">
-        <f>SUM(F2:F4)</f>
+      <c r="G11" s="17">
+        <f>SUM(G2:G4)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
-        <v>2</v>
-      </c>
-      <c r="B12" s="18">
-        <v>1</v>
-      </c>
-      <c r="C12" s="18" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>1</v>
+      </c>
+      <c r="B12" s="26">
+        <v>99</v>
+      </c>
+      <c r="C12" s="17">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="18">
-        <f>SUM(E5:E7)</f>
+      <c r="F12" s="17">
+        <f>SUM(F5:F7)</f>
         <v>13145</v>
       </c>
-      <c r="F12" s="18">
-        <f>SUM(F5:F7)</f>
+      <c r="G12" s="17">
+        <f>SUM(G5:G7)</f>
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
-        <v>2</v>
-      </c>
-      <c r="B13" s="18">
-        <v>1</v>
-      </c>
-      <c r="C13" s="18" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>1</v>
+      </c>
+      <c r="B13" s="26">
+        <v>99</v>
+      </c>
+      <c r="C13" s="17">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="18">
-        <f>SUM(E6:E8)</f>
+      <c r="F13" s="17">
+        <f>SUM(F6:F8)</f>
         <v>16437</v>
       </c>
-      <c r="F13" s="18">
-        <f>SUM(F6:F8)</f>
+      <c r="G13" s="17">
+        <f>SUM(G6:G8)</f>
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
-        <v>1</v>
-      </c>
-      <c r="B14" s="17">
-        <v>2</v>
-      </c>
-      <c r="C14" s="17" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>1</v>
+      </c>
+      <c r="B14" s="25">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
+        <v>99</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="17">
-        <f>E2+E5+E8</f>
+      <c r="F14" s="16">
+        <f>F2+F5+F8</f>
         <v>14822</v>
       </c>
-      <c r="F14" s="17">
-        <f>F2+F5+F8</f>
+      <c r="G14" s="16">
+        <f>G2+G5+G8</f>
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
-        <v>1</v>
-      </c>
-      <c r="B15" s="17">
-        <v>2</v>
-      </c>
-      <c r="C15" s="17" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>1</v>
+      </c>
+      <c r="B15" s="25">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16">
+        <v>99</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="17">
-        <f t="shared" ref="E15:F16" si="0">E3+E6+E9</f>
+      <c r="F15" s="16">
+        <f t="shared" ref="F15:G16" si="0">F3+F6+F9</f>
         <v>17740</v>
       </c>
-      <c r="F15" s="17">
+      <c r="G15" s="16">
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
-        <v>1</v>
-      </c>
-      <c r="B16" s="17">
-        <v>2</v>
-      </c>
-      <c r="C16" s="17" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="25">
+        <v>1</v>
+      </c>
+      <c r="C16" s="16">
+        <v>99</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="17">
+      <c r="F16" s="16">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="F16" s="17">
+      <c r="G16" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="26">
+        <v>99</v>
+      </c>
+      <c r="C17" s="17">
+        <v>99</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="17">
+        <f>SUM(F2:F10)</f>
+        <v>32708</v>
+      </c>
+      <c r="G17" s="17">
+        <f>SUM(G2:G10)</f>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
+        <v>1</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="22">
+        <v>584</v>
+      </c>
+      <c r="E24" s="22">
         <v>2</v>
       </c>
-      <c r="B17" s="18">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="22">
+        <v>1</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="22">
+        <v>546</v>
+      </c>
+      <c r="E25" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="22">
+        <v>1</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="22">
         <v>2</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="18">
-        <f>SUM(E2:E10)</f>
-        <v>32708</v>
-      </c>
-      <c r="F17" s="18">
-        <f>SUM(F2:F10)</f>
-        <v>261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
-        <v>1</v>
-      </c>
-      <c r="B24" s="23">
-        <v>1</v>
-      </c>
-      <c r="C24" s="23" t="s">
+      <c r="E26" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="21">
+        <v>1</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="23">
-        <v>584</v>
-      </c>
-      <c r="F24" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="23">
-        <v>1</v>
-      </c>
-      <c r="B25" s="23">
-        <v>1</v>
-      </c>
-      <c r="C25" s="23" t="s">
+      <c r="C27" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="21">
+        <v>5473</v>
+      </c>
+      <c r="E27" s="21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="21">
+        <v>1</v>
+      </c>
+      <c r="B28" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="23">
-        <v>546</v>
-      </c>
-      <c r="F25" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="23">
-        <v>1</v>
-      </c>
-      <c r="B26" s="23">
-        <v>1</v>
-      </c>
-      <c r="C26" s="23" t="s">
+      <c r="C28" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="21">
+        <v>7651</v>
+      </c>
+      <c r="E28" s="21">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="21">
+        <v>1</v>
+      </c>
+      <c r="B29" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="23">
-        <v>2</v>
-      </c>
-      <c r="F26" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
-        <v>1</v>
-      </c>
-      <c r="B27" s="22">
-        <v>1</v>
-      </c>
-      <c r="C27" s="22" t="s">
+      <c r="C29" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="21">
+        <v>21</v>
+      </c>
+      <c r="E29" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="22">
+        <v>1</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="22">
-        <v>5473</v>
-      </c>
-      <c r="F27" s="22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
-        <v>1</v>
-      </c>
-      <c r="B28" s="22">
-        <v>1</v>
-      </c>
-      <c r="C28" s="22" t="s">
+      <c r="C30" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="22">
+        <v>8765</v>
+      </c>
+      <c r="E30" s="22">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="22">
+        <v>1</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="22">
-        <v>7651</v>
-      </c>
-      <c r="F28" s="22">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
-        <v>1</v>
-      </c>
-      <c r="B29" s="22">
-        <v>1</v>
-      </c>
-      <c r="C29" s="22" t="s">
+      <c r="C31" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="22">
+        <v>9543</v>
+      </c>
+      <c r="E31" s="22">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="22">
+        <v>1</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="22">
-        <v>21</v>
-      </c>
-      <c r="F29" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
-        <v>1</v>
-      </c>
-      <c r="B30" s="23">
-        <v>1</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="23">
-        <v>8765</v>
-      </c>
-      <c r="F30" s="23">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
-        <v>1</v>
-      </c>
-      <c r="B31" s="23">
-        <v>1</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="23">
-        <v>9543</v>
-      </c>
-      <c r="F31" s="23">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="23">
-        <v>1</v>
-      </c>
-      <c r="B32" s="23">
-        <v>1</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="23">
+      <c r="D32" s="22">
         <v>123</v>
       </c>
-      <c r="F32" s="23">
+      <c r="E32" s="22">
         <v>9</v>
       </c>
     </row>
